--- a/計算機程式/遊戲評分_page2.xlsx
+++ b/計算機程式/遊戲評分_page2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="189">
   <si>
     <t>Final Fantasy II</t>
   </si>
@@ -271,6 +271,261 @@
     <t>Ninja Gaiden Black</t>
   </si>
   <si>
+    <t>BioShock Infinite</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto: Chinatown Wars    Read the review</t>
+  </si>
+  <si>
+    <t>Halo: Combat Evolved</t>
+  </si>
+  <si>
+    <t>Madden NFL 2005</t>
+  </si>
+  <si>
+    <t>SSX 3</t>
+  </si>
+  <si>
+    <t>Rock Band 3</t>
+  </si>
+  <si>
+    <t>Galactic Civilizations II: Twilight of the Arnor</t>
+  </si>
+  <si>
+    <t>Final Fantasy VIII</t>
+  </si>
+  <si>
+    <t>Sid Meier's Alpha Centauri</t>
+  </si>
+  <si>
+    <t>Klonoa 2: Lunatea's Veil</t>
+  </si>
+  <si>
+    <t>Advance Wars</t>
+  </si>
+  <si>
+    <t>Madden NFL 2003</t>
+  </si>
+  <si>
+    <t>Pok�mon Red / Green / Blue Version</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Gears of War 2    Read the review</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Link's Awakening DX</t>
+  </si>
+  <si>
+    <t>Resident Evil 3: Nemesis</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto IV: The Lost and Damned</t>
+  </si>
+  <si>
+    <t>Jet Coaster Dream 2</t>
+  </si>
+  <si>
+    <t>Monster Hunter: World    Read the review</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization VI</t>
+  </si>
+  <si>
+    <t>Super Mario World: Super Mario Advance 2</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto: Chinatown Wars</t>
+  </si>
+  <si>
+    <t>Gears of War    Read the review</t>
+  </si>
+  <si>
+    <t>Star Wars: Knights of the Old Republic</t>
+  </si>
+  <si>
+    <t>Ninja Gaiden</t>
+  </si>
+  <si>
+    <t>Final Fantasy XII</t>
+  </si>
+  <si>
+    <t>Viewtiful Joe</t>
+  </si>
+  <si>
+    <t>LittleBigPlanet    Read the review</t>
+  </si>
+  <si>
+    <t>Braid    Read the review</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid 3: Subsistence</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization IV</t>
+  </si>
+  <si>
+    <t>Okami</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Splinter Cell: Chaos Theory</t>
+  </si>
+  <si>
+    <t>Company of Heroes</t>
+  </si>
+  <si>
+    <t>Unreal Tournament 2004</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Oracle of Ages</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Skyward Sword</t>
+  </si>
+  <si>
+    <t>Pac-Man Championship Edition DX</t>
+  </si>
+  <si>
+    <t>Street Fighter IV    Read the review</t>
+  </si>
+  <si>
+    <t>God of War</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Oracle of Seasons</t>
+  </si>
+  <si>
+    <t>Burnout 3: Takedown</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Ocarina of Time 3D</t>
+  </si>
+  <si>
+    <t>Celeste    Read the review</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 3: Warped</t>
+  </si>
+  <si>
+    <t>Donkey Kong 64</t>
+  </si>
+  <si>
+    <t>Mark of the Ninja</t>
+  </si>
+  <si>
+    <t>Thief: The Dark Project</t>
+  </si>
+  <si>
+    <t>Uncharted 3: Drake's Deception</t>
+  </si>
+  <si>
+    <t>The Elder Scrolls V: Skyrim</t>
+  </si>
+  <si>
+    <t>World Soccer Winning Eleven 8 International</t>
+  </si>
+  <si>
+    <t>Castlevania:  Symphony of the Night</t>
+  </si>
+  <si>
+    <t>Castlevania: Symphony of the Night</t>
+  </si>
+  <si>
+    <t>Virtua Fighter 4</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Mass Effect 2</t>
+  </si>
+  <si>
+    <t>Quake III Arena</t>
+  </si>
+  <si>
+    <t>StarCraft II: Wings of Liberty    Read the review</t>
+  </si>
+  <si>
+    <t>Age of Empires II: The Age of Kings</t>
+  </si>
+  <si>
+    <t>Sid Meier's Gettysburg!</t>
+  </si>
+  <si>
+    <t>Warcraft II: Tides of Darkness</t>
+  </si>
+  <si>
+    <t>NFL 2K2</t>
+  </si>
+  <si>
+    <t>Resident Evil 2</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Grim Fandango</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus    Read the review</t>
+  </si>
+  <si>
+    <t>Crazy Taxi</t>
+  </si>
+  <si>
+    <t>God of War II</t>
+  </si>
+  <si>
+    <t>Warcraft III: Reign of Chaos</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Splinter Cell</t>
+  </si>
+  <si>
+    <t>Eternal Darkness: Sanity's Requiem</t>
+  </si>
+  <si>
+    <t>Halo: Reach</t>
+  </si>
+  <si>
+    <t>Mario Kart: Super Circuit</t>
+  </si>
+  <si>
+    <t>Vagrant Story</t>
+  </si>
+  <si>
+    <t>Banjo-Kazooie</t>
+  </si>
+  <si>
+    <t>Donkey Kong Country 2: Diddy's Kong Quest</t>
+  </si>
+  <si>
+    <t>Gran Turismo 3: A-Spec</t>
+  </si>
+  <si>
+    <t>Metal Gear Solid 4: Guns of the Patriots    Read the review</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: A Link Between Worlds</t>
+  </si>
+  <si>
+    <t>World of Warcraft: Wrath of the Lich King</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Source</t>
+  </si>
+  <si>
+    <t>Medal of Honor</t>
+  </si>
+  <si>
+    <t>Ape Escape</t>
+  </si>
+  <si>
+    <t>Batman: Arkham Asylum</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -298,6 +553,12 @@
     <t>9.2</t>
   </si>
   <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
     <t>10.0</t>
   </si>
   <si>
@@ -310,13 +571,16 @@
     <t>9.7</t>
   </si>
   <si>
+    <t>9.4</t>
+  </si>
+  <si>
     <t>8.2</t>
   </si>
   <si>
-    <t>8.9</t>
-  </si>
-  <si>
     <t>7.0</t>
+  </si>
+  <si>
+    <t>6.3</t>
   </si>
 </sst>
 </file>
@@ -648,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -673,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -687,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -701,13 +965,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -715,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -729,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -743,13 +1007,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -757,13 +1021,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -771,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -785,13 +1049,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -799,13 +1063,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -813,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -827,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -841,13 +1105,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -855,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -869,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -883,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -897,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -911,13 +1175,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -925,13 +1189,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -939,13 +1203,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -953,13 +1217,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -967,13 +1231,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -981,13 +1245,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -995,13 +1259,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1009,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1023,13 +1287,13 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1037,13 +1301,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1051,13 +1315,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1065,13 +1329,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1079,13 +1343,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1093,13 +1357,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1107,13 +1371,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1121,13 +1385,13 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1135,13 +1399,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1149,13 +1413,13 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1163,13 +1427,13 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1177,13 +1441,13 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1191,13 +1455,13 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1205,13 +1469,13 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1219,13 +1483,13 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1233,13 +1497,13 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1247,13 +1511,13 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1261,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1275,13 +1539,13 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1289,13 +1553,13 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1303,13 +1567,13 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1317,13 +1581,13 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1331,13 +1595,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1345,13 +1609,13 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1359,13 +1623,13 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1373,13 +1637,13 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1387,13 +1651,13 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1401,13 +1665,13 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1415,13 +1679,13 @@
         <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1429,13 +1693,13 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1443,13 +1707,13 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1457,13 +1721,13 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1471,13 +1735,13 @@
         <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1485,13 +1749,13 @@
         <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1499,13 +1763,13 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1513,13 +1777,13 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1527,13 +1791,13 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1541,13 +1805,13 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1555,13 +1819,13 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1569,13 +1833,13 @@
         <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1583,13 +1847,13 @@
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1597,13 +1861,13 @@
         <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1611,13 +1875,13 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1625,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1639,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1653,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1667,13 +1931,13 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1681,13 +1945,13 @@
         <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1695,13 +1959,13 @@
         <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1709,13 +1973,13 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1723,13 +1987,13 @@
         <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1737,13 +2001,13 @@
         <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1751,13 +2015,13 @@
         <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1765,13 +2029,13 @@
         <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1779,13 +2043,13 @@
         <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1793,13 +2057,13 @@
         <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1807,13 +2071,13 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1821,13 +2085,13 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1835,13 +2099,13 @@
         <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1849,13 +2113,13 @@
         <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1863,13 +2127,13 @@
         <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1877,13 +2141,13 @@
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1891,13 +2155,13 @@
         <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1905,13 +2169,13 @@
         <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1919,13 +2183,13 @@
         <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1933,13 +2197,13 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1947,13 +2211,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1961,13 +2225,13 @@
         <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1975,13 +2239,13 @@
         <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1989,13 +2253,13 @@
         <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2003,13 +2267,13 @@
         <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2017,13 +2281,13 @@
         <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2031,13 +2295,13 @@
         <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2045,13 +2309,1413 @@
         <v>84</v>
       </c>
       <c r="B100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>85</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
         <v>91</v>
       </c>
-      <c r="D100" t="s">
-        <v>85</v>
+      <c r="B108" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>185</v>
+      </c>
+      <c r="D118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>103</v>
+      </c>
+      <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" t="s">
+        <v>185</v>
+      </c>
+      <c r="D124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" t="s">
+        <v>185</v>
+      </c>
+      <c r="D142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" t="s">
+        <v>175</v>
+      </c>
+      <c r="D145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148" t="s">
+        <v>175</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" t="s">
+        <v>175</v>
+      </c>
+      <c r="D149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>128</v>
+      </c>
+      <c r="B150" t="s">
+        <v>170</v>
+      </c>
+      <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>114</v>
+      </c>
+      <c r="B151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" t="s">
+        <v>175</v>
+      </c>
+      <c r="D151" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B154" t="s">
+        <v>170</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+      <c r="D154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>47</v>
+      </c>
+      <c r="B160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>139</v>
+      </c>
+      <c r="B163" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" t="s">
+        <v>170</v>
+      </c>
+      <c r="C164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>146</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>175</v>
+      </c>
+      <c r="D178" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" t="s">
+        <v>175</v>
+      </c>
+      <c r="D181" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" t="s">
+        <v>170</v>
+      </c>
+      <c r="C182" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>156</v>
+      </c>
+      <c r="B183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" t="s">
+        <v>175</v>
+      </c>
+      <c r="D183" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>170</v>
+      </c>
+      <c r="C184" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" t="s">
+        <v>170</v>
+      </c>
+      <c r="C185" t="s">
+        <v>175</v>
+      </c>
+      <c r="D185" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186" t="s">
+        <v>170</v>
+      </c>
+      <c r="C186" t="s">
+        <v>175</v>
+      </c>
+      <c r="D186" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>124</v>
+      </c>
+      <c r="B187" t="s">
+        <v>177</v>
+      </c>
+      <c r="C187" t="s">
+        <v>175</v>
+      </c>
+      <c r="D187" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" t="s">
+        <v>175</v>
+      </c>
+      <c r="D188" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>160</v>
+      </c>
+      <c r="B189" t="s">
+        <v>170</v>
+      </c>
+      <c r="C189" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>170</v>
+      </c>
+      <c r="C190" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" t="s">
+        <v>170</v>
+      </c>
+      <c r="C191" t="s">
+        <v>175</v>
+      </c>
+      <c r="D191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" t="s">
+        <v>176</v>
+      </c>
+      <c r="C192" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>164</v>
+      </c>
+      <c r="B193" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>165</v>
+      </c>
+      <c r="B194" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" t="s">
+        <v>175</v>
+      </c>
+      <c r="C195" t="s">
+        <v>175</v>
+      </c>
+      <c r="D195" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>166</v>
+      </c>
+      <c r="B196" t="s">
+        <v>170</v>
+      </c>
+      <c r="C196" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197" t="s">
+        <v>170</v>
+      </c>
+      <c r="C197" t="s">
+        <v>175</v>
+      </c>
+      <c r="D197" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" t="s">
+        <v>170</v>
+      </c>
+      <c r="C198" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" t="s">
+        <v>170</v>
+      </c>
+      <c r="C199" t="s">
+        <v>175</v>
+      </c>
+      <c r="D199" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" t="s">
+        <v>170</v>
+      </c>
+      <c r="C200" t="s">
+        <v>175</v>
+      </c>
+      <c r="D200" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
